--- a/biology/Botanique/Keetia_bakossiorum/Keetia_bakossiorum.xlsx
+++ b/biology/Botanique/Keetia_bakossiorum/Keetia_bakossiorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Keetia bakossiorum Cheek est une espèce de plantes du genre Keetia, de la famille des Rubiaceae[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Keetia bakossiorum Cheek est une espèce de plantes du genre Keetia, de la famille des Rubiaceae,.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une plante à fleur, appartenant au groupe des dicotylédones[4]. Elle est endémique au Cameroun, son habitat naturel se trouve dans les forêts de montagne, à une altitude comprise entre 1400 – 1500 m[5].
-Elle est décrite par l’IUCN comme une espèce en danger critique "CR"[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante à fleur, appartenant au groupe des dicotylédones. Elle est endémique au Cameroun, son habitat naturel se trouve dans les forêts de montagne, à une altitude comprise entre 1400 – 1500 m.
+Elle est décrite par l’IUCN comme une espèce en danger critique "CR".
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique bakossiorum se rapporte au mont Bakossi, où l’espèce a été découverte pour la première fois.
 </t>
